--- a/src/main/resources/xlsx-templates/mas-report-6b.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-6b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80F537-30CC-4132-AFF1-7D39A8DB2385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6BFE0-95E2-4D69-B82B-E06DFDBAB26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="330" windowWidth="19785" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6B Summary" sheetId="5" r:id="rId1"/>
@@ -179,6 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -709,9 +712,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="104">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -721,11 +724,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,106 +760,160 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,119 +935,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC7A168-8554-4268-ACD7-9F07E022F1C7}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,833 +1250,829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="67" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="10">
+      <c r="A33" s="68"/>
+      <c r="B33" s="9">
         <v>2</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="10">
+      <c r="A34" s="68"/>
+      <c r="B34" s="9">
         <v>3</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="12"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="11">
+      <c r="A35" s="68"/>
+      <c r="B35" s="10">
         <v>4</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="10">
+      <c r="A36" s="68"/>
+      <c r="B36" s="9">
         <v>5</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="10">
+      <c r="A38" s="68"/>
+      <c r="B38" s="9">
         <v>2</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="10">
+      <c r="A39" s="68"/>
+      <c r="B39" s="9">
         <v>3</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="11">
+      <c r="A40" s="68"/>
+      <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="10">
+      <c r="A41" s="68"/>
+      <c r="B41" s="9">
         <v>5</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="12"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="33"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>1</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="12"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="10">
+      <c r="A44" s="68"/>
+      <c r="B44" s="9">
         <v>2</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="12"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="10">
+      <c r="A45" s="68"/>
+      <c r="B45" s="9">
         <v>3</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="12"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="11">
+      <c r="A46" s="68"/>
+      <c r="B46" s="10">
         <v>4</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="12"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="10">
+      <c r="A47" s="68"/>
+      <c r="B47" s="9">
         <v>5</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="25"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>1</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="10">
+      <c r="A49" s="68"/>
+      <c r="B49" s="9">
         <v>2</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="10">
+      <c r="A50" s="68"/>
+      <c r="B50" s="9">
         <v>3</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="11">
+      <c r="A51" s="68"/>
+      <c r="B51" s="10">
         <v>4</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="12"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="10">
+      <c r="A52" s="68"/>
+      <c r="B52" s="9">
         <v>5</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="12"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="33"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>1</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="12"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="10">
+      <c r="A55" s="68"/>
+      <c r="B55" s="9">
         <v>2</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="12"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="10">
+      <c r="A56" s="68"/>
+      <c r="B56" s="9">
         <v>3</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="12"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="11">
+      <c r="A57" s="68"/>
+      <c r="B57" s="10">
         <v>4</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="12"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="10">
+      <c r="A58" s="68"/>
+      <c r="B58" s="9">
         <v>5</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="25"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>1</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="10">
+      <c r="A60" s="68"/>
+      <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="25"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
-      <c r="B61" s="10">
+      <c r="A61" s="68"/>
+      <c r="B61" s="9">
         <v>3</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="12"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="11">
+      <c r="A62" s="68"/>
+      <c r="B62" s="10">
         <v>4</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="12"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
-      <c r="B63" s="10">
+      <c r="A63" s="68"/>
+      <c r="B63" s="9">
         <v>5</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="12"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>1</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="12"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
-      <c r="B65" s="10">
+      <c r="A65" s="40"/>
+      <c r="B65" s="9">
         <v>2</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="12"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="10">
+      <c r="A66" s="40"/>
+      <c r="B66" s="9">
         <v>3</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="12"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
-      <c r="B67" s="10">
+      <c r="A67" s="40"/>
+      <c r="B67" s="9">
         <v>4</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="12"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="34">
+      <c r="A68" s="67"/>
+      <c r="B68" s="30">
         <v>5</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="37"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="85"/>
+      <c r="E69" s="47"/>
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>1</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="87"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="96"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="60"/>
-      <c r="B71" s="10">
+      <c r="A71" s="40"/>
+      <c r="B71" s="9">
         <v>2</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="87"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="96"/>
     </row>
     <row r="72" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="60"/>
-      <c r="B72" s="10">
+      <c r="A72" s="40"/>
+      <c r="B72" s="9">
         <v>3</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="87"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="96"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="60"/>
-      <c r="B73" s="10">
+      <c r="A73" s="40"/>
+      <c r="B73" s="9">
         <v>4</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="87"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="96"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="10">
+      <c r="A74" s="40"/>
+      <c r="B74" s="9">
         <v>5</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="87"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="96"/>
     </row>
     <row r="75" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="94"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="97"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>1</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="87"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="96"/>
     </row>
     <row r="77" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
-      <c r="B77" s="10">
+      <c r="A77" s="40"/>
+      <c r="B77" s="9">
         <v>2</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="96"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="10">
+      <c r="A78" s="40"/>
+      <c r="B78" s="9">
         <v>3</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="87"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="96"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="10">
+      <c r="A79" s="40"/>
+      <c r="B79" s="9">
         <v>4</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="87"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="96"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="31">
+      <c r="A80" s="42"/>
+      <c r="B80" s="27">
         <v>5</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="96"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="99"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="88" t="s">
+      <c r="A82" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="89"/>
-      <c r="C82" s="59" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="59"/>
-      <c r="E82" s="22" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="90"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="23"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="91" t="s">
+      <c r="A84" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="38"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>7</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="93"/>
-      <c r="D86" s="39" t="s">
+      <c r="C86" s="45"/>
+      <c r="D86" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="40"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="102"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C84:D84"/>
@@ -2069,26 +2089,30 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A70:A74"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/xlsx-templates/mas-report-6b.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-6b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6BFE0-95E2-4D69-B82B-E06DFDBAB26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2E4BC-E5D3-46A0-A53E-F608C58517CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,9 +778,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -812,24 +809,171 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -839,185 +983,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC7A168-8554-4268-ACD7-9F07E022F1C7}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1250,49 +1250,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="20" t="s">
         <v>42</v>
       </c>
@@ -1301,89 +1301,89 @@
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="20" t="s">
         <v>42</v>
       </c>
@@ -1392,107 +1392,107 @@
       <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="44" t="s">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="44" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -1518,102 +1518,102 @@
         <v>26</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="91"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="9">
         <v>2</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="91"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="9">
         <v>3</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="91"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="10">
         <v>4</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="91"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="9">
         <v>5</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="9">
         <v>2</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="9">
         <v>3</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="91"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="10">
         <v>4</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="91"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="9">
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="D41" s="91"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,101 +1622,101 @@
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="29"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="10">
         <v>1</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="91"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="9">
         <v>2</v>
       </c>
       <c r="C44" s="22"/>
-      <c r="D44" s="91"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="9">
         <v>3</v>
       </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="91"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="10">
         <v>4</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="91"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="9">
         <v>5</v>
       </c>
       <c r="C47" s="22"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="23"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="99"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="10">
         <v>1</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="99"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="9">
         <v>2</v>
       </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="23"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="99"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="9">
         <v>3</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="91"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="10">
         <v>4</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="91"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="9">
         <v>5</v>
       </c>
       <c r="C52" s="22"/>
-      <c r="D52" s="91"/>
+      <c r="D52" s="41"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,308 +1725,308 @@
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="29"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="10">
         <v>1</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="91"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="9">
         <v>2</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="91"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="9">
         <v>3</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="91"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="10">
         <v>4</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="91"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="9">
         <v>5</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="99"/>
     </row>
     <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
     </row>
     <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="9">
         <v>2</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
     </row>
     <row r="61" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="9">
         <v>3</v>
       </c>
       <c r="C61" s="7"/>
-      <c r="D61" s="91"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="10">
         <v>4</v>
       </c>
       <c r="C62" s="22"/>
-      <c r="D62" s="91"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="9">
         <v>5</v>
       </c>
       <c r="C63" s="22"/>
-      <c r="D63" s="91"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="91"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="9">
         <v>2</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="91"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="9">
         <v>3</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="91"/>
+      <c r="D66" s="41"/>
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9">
         <v>4</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="91"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="30">
+      <c r="A68" s="57"/>
+      <c r="B68" s="29">
         <v>5</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="32"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="96"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="9">
         <v>2</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="96"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="86"/>
     </row>
     <row r="72" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="9">
         <v>3</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="96"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="86"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="9">
         <v>4</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="96"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="86"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="9">
         <v>5</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="96"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="86"/>
     </row>
     <row r="75" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="97"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="93"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B76" s="9">
         <v>1</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="96"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="77" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="9">
         <v>2</v>
       </c>
       <c r="C77" s="22"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="96"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="9">
         <v>3</v>
       </c>
       <c r="C78" s="22"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="96"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="86"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="9">
         <v>4</v>
       </c>
       <c r="C79" s="22"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="96"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="86"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="27">
+      <c r="A80" s="90"/>
+      <c r="B80" s="26">
         <v>5</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="99"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="95"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="46" t="s">
+      <c r="B82" s="88"/>
+      <c r="C82" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="46"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
       <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="33"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>7</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="34" t="s">
+      <c r="C86" s="92"/>
+      <c r="D86" s="33" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="20" t="s">
@@ -2037,42 +2037,46 @@
       <c r="A87" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="102"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="35"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C84:D84"/>
@@ -2089,30 +2093,26 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
